--- a/Documentation/TestsEtBugs.xlsx
+++ b/Documentation/TestsEtBugs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\BatailleNavale\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessy.BORCARD\Documents\GitHub\ICT431\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>Scénario</t>
   </si>
@@ -73,6 +73,16 @@
   <si>
     <t>c'est fonctionel mais le jouer peut faire bugger le 
 programme en mettant un caractère autre q'une lettre ou chiffre</t>
+  </si>
+  <si>
+    <t>Testeur
+adam</t>
+  </si>
+  <si>
+    <t>Solutions</t>
+  </si>
+  <si>
+    <t>Faire en sorte de tester l'entrée du joueur pour qu'il correspond à un chiffre</t>
   </si>
 </sst>
 </file>
@@ -114,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -171,17 +181,30 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -194,7 +217,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -207,7 +230,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -222,7 +245,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -237,12 +260,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -255,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,35 +324,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,263 +654,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="104.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="104.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="9"/>
+      <c r="C10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="9"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="9"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="9"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="9"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="9"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="9"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="12"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="9"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="9"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="12"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="9"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="9"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="12"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="9"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="9"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="9"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="9"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="9"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="9"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="9"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="13"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/TestsEtBugs.xlsx
+++ b/Documentation/TestsEtBugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>Scénario</t>
   </si>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>Pas implémenté</t>
-  </si>
-  <si>
-    <t>c'est fonctionel mais le jouer peut faire bugger le 
-programme en mettant un caractère autre q'une lettre ou chiffre</t>
   </si>
   <si>
     <t>Testeur
@@ -83,6 +79,22 @@
   </si>
   <si>
     <t>Faire en sorte de tester l'entrée du joueur pour qu'il correspond à un chiffre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corrigé
+</t>
+  </si>
+  <si>
+    <t>types de tests</t>
+  </si>
+  <si>
+    <t>Intrégration</t>
+  </si>
+  <si>
+    <t>unitaire</t>
+  </si>
+  <si>
+    <t>système</t>
   </si>
 </sst>
 </file>
@@ -104,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +135,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -309,11 +333,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,7 +367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,16 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,6 +401,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,9 +721,10 @@
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="104.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,352 +732,409 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="F2" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="E8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="B10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="6"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
